--- a/data/census2020/codebook/CodeBook.B01003.xlsx
+++ b/data/census2020/codebook/CodeBook.B01003.xlsx
@@ -11,12 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Variable Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Informat</t>
+  </si>
   <si>
     <t>GEO_ID</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Geo_id</t>
+  </si>
+  <si>
+    <t>Char</t>
   </si>
   <si>
     <t>NAME</t>
@@ -50,10 +74,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -61,6 +94,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <i/>
@@ -88,28 +126,59 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FFC1C1C1"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -327,13 +396,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11.25"/>
-    <col customWidth="1" min="2" max="2" width="39.0"/>
+    <col customWidth="1" min="2" max="2" width="30.63"/>
     <col customWidth="1" min="3" max="3" width="20.0"/>
-    <col customWidth="1" min="4" max="8" width="7.63"/>
-    <col customWidth="1" min="9" max="10" width="11.0"/>
-    <col customWidth="1" min="11" max="11" width="11.63"/>
-    <col customWidth="1" min="12" max="12" width="14.0"/>
-    <col customWidth="1" min="13" max="26" width="7.63"/>
+    <col customWidth="1" min="4" max="6" width="7.63"/>
+    <col customWidth="1" min="7" max="8" width="11.0"/>
+    <col customWidth="1" min="9" max="9" width="11.63"/>
+    <col customWidth="1" min="10" max="10" width="14.0"/>
+    <col customWidth="1" min="11" max="26" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -343,116 +412,175 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7">
+        <v>25.0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="H3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="E4" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="H4" s="9"/>
     </row>
     <row r="5">
-      <c r="D5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>22.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="H5" s="9"/>
     </row>
     <row r="6">
-      <c r="D6" s="3"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7">
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8">
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9">
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10">
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11">
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12">
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13">
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14">
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15">
-      <c r="L15" s="4"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16">
-      <c r="L16" s="4"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="J17" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1435,10 +1563,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
+  <mergeCells count="2">
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
